--- a/Balanse.xlsx
+++ b/Balanse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="101">
   <si>
     <t>Таблица кабельных линий</t>
   </si>
@@ -307,6 +307,18 @@
   </si>
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>Дата (месяц, год)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>NumberWD</t>
+  </si>
+  <si>
+    <t>Количество рабочих часов</t>
   </si>
 </sst>
 </file>
@@ -385,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -396,6 +408,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -758,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F76"/>
+  <dimension ref="A2:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -906,7 +920,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -918,7 +932,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -932,7 +946,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -946,7 +960,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
@@ -954,7 +968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -963,7 +977,7 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -974,7 +988,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -985,7 +999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -996,7 +1010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1007,7 +1021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
@@ -1021,7 +1035,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1029,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1043,7 +1057,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1053,8 +1067,12 @@
       <c r="C31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <f>21*8</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1142,19 +1160,17 @@
         <v>60</v>
       </c>
     </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="8"/>
+    </row>
     <row r="41" spans="1:6">
       <c r="B41" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="5">
-        <v>3</v>
-      </c>
-      <c r="F41" t="s">
-        <v>81</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
@@ -1166,187 +1182,190 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" t="s">
-        <v>90</v>
+        <v>19</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="B47" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="5">
-        <v>4</v>
-      </c>
-      <c r="F47" t="s">
-        <v>82</v>
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B48" t="s">
-        <v>1</v>
+      <c r="B48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" t="s">
-        <v>48</v>
+      <c r="B52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="5">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="B54" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="5">
-        <v>5</v>
-      </c>
-      <c r="F54" t="s">
-        <v>84</v>
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
-      </c>
-      <c r="F56" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>27</v>
+      <c r="B57" t="s">
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" t="s">
-        <v>49</v>
+      <c r="B59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="5">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="B61" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>69</v>
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1354,154 +1373,195 @@
         <v>38</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>72</v>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="B66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="B67" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" s="5">
-        <v>6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>85</v>
-      </c>
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>38</v>
       </c>
-      <c r="B68" t="s">
-        <v>1</v>
-      </c>
-      <c r="F68" t="s">
-        <v>86</v>
+      <c r="B68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" t="s">
-        <v>59</v>
-      </c>
-      <c r="F69" t="s">
-        <v>87</v>
+        <v>19</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" t="s">
-        <v>34</v>
-      </c>
-      <c r="F70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" t="s">
-        <v>49</v>
-      </c>
-      <c r="F71" t="s">
-        <v>90</v>
+        <v>66</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="B72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="5">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="B73" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" s="5">
-        <v>7</v>
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>38</v>
       </c>
-      <c r="B74" t="s">
-        <v>1</v>
+      <c r="B74" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>59</v>
+      </c>
+      <c r="F74" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>34</v>
+      </c>
+      <c r="F75" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="B78" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="5">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C81" t="s">
         <v>60</v>
       </c>
     </row>
